--- a/classificationFile_sales/sumSales_year/花菜类_sales.xlsx
+++ b/classificationFile_sales/sumSales_year/花菜类_sales.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
+    <t>单品名称</t>
+  </si>
+  <si>
     <t>分类名称</t>
   </si>
   <si>
-    <t>单品名称</t>
-  </si>
-  <si>
     <t>年份</t>
   </si>
   <si>
     <t>销量(千克)</t>
   </si>
   <si>
+    <t>枝江青梗散花</t>
+  </si>
+  <si>
+    <t>紫白菜(1)</t>
+  </si>
+  <si>
+    <t>紫白菜(2)</t>
+  </si>
+  <si>
+    <t>西兰花</t>
+  </si>
+  <si>
+    <t>青梗散花</t>
+  </si>
+  <si>
     <t>花菜类</t>
-  </si>
-  <si>
-    <t>枝江青梗散花</t>
-  </si>
-  <si>
-    <t>紫白菜(1)</t>
-  </si>
-  <si>
-    <t>紫白菜(2)</t>
-  </si>
-  <si>
-    <t>西兰花</t>
-  </si>
-  <si>
-    <t>青梗散花</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -451,10 +451,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
